--- a/results/I3_N5_M3_T45_C200_DepLowerLeft_s2_mean_res.xlsx
+++ b/results/I3_N5_M3_T45_C200_DepLowerLeft_s2_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.28700338725341</v>
+        <v>36.59143808817635</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2510001659393311</v>
+        <v>0.1550002098083496</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48.2870033872534</v>
+        <v>36.59143808817635</v>
       </c>
     </row>
     <row r="7">
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -882,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30.66483080554362</v>
+        <v>30.66483080554374</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40.49313212343934</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>37.50000666666357</v>
+        <v>32.99312545677579</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>31.95858503258993</v>
       </c>
     </row>
     <row r="8">
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>41.07300000001125</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="4">
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>156.3449999999557</v>
+        <v>124.2</v>
       </c>
     </row>
     <row r="5">
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>199.0730000000538</v>
+        <v>65.59999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>155.330000000024</v>
+        <v>136.6</v>
       </c>
     </row>
     <row r="7">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>47.53900000000448</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>199.0730000000743</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>156.3449999999335</v>
+        <v>136.6</v>
       </c>
     </row>
     <row r="10">
